--- a/tfres/test.xlsx
+++ b/tfres/test.xlsx
@@ -405,10 +405,10 @@
     <t>小细胞癌</t>
   </si>
   <si>
-    <t>开心麻花</t>
-  </si>
-  <si>
-    <t>猴子其</t>
+    <t>尹秀平.doc</t>
+  </si>
+  <si>
+    <t>尹秀平</t>
   </si>
 </sst>
 </file>
@@ -465,7 +465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -486,6 +486,105 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -810,7 +909,7 @@
   <dimension ref="A1:CH8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="A7" sqref="A7:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2340,49 +2439,148 @@
       <c r="A7" t="s" s="0">
         <v>128</v>
       </c>
-      <c r="AH7" t="n" s="8">
-        <v>44.1</v>
-      </c>
-      <c r="AI7" t="n" s="9">
-        <v>86.6</v>
-      </c>
-      <c r="AJ7" t="n" s="10">
-        <v>29.2</v>
-      </c>
-      <c r="AK7" t="n" s="11">
-        <v>336.0</v>
-      </c>
-      <c r="AL7" t="n" s="12">
-        <v>38.9</v>
-      </c>
-      <c r="AM7" t="n" s="13">
-        <v>12.5</v>
-      </c>
-      <c r="AN7" t="n" s="14">
-        <v>14.0</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
         <v>129</v>
       </c>
-      <c r="AH8" t="n" s="15">
-        <v>44.0</v>
-      </c>
-      <c r="AI8" t="n" s="16">
-        <v>86.6</v>
-      </c>
-      <c r="AJ8" t="n" s="17">
-        <v>29.2</v>
-      </c>
-      <c r="AK8" t="n" s="18">
+      <c r="AF8" t="n" s="45">
+        <v>4.99</v>
+      </c>
+      <c r="AG8" t="n" s="46">
+        <v>151.0</v>
+      </c>
+      <c r="AH8" t="n" s="47">
+        <v>44.9</v>
+      </c>
+      <c r="AI8" t="n" s="48">
+        <v>90.0</v>
+      </c>
+      <c r="AJ8" t="n" s="49">
+        <v>30.3</v>
+      </c>
+      <c r="AK8" t="n" s="50">
         <v>336.0</v>
       </c>
-      <c r="AL8" t="n" s="19">
-        <v>38.9</v>
-      </c>
-      <c r="AM8" t="n" s="20">
-        <v>12.5</v>
+      <c r="AL8" t="n" s="51">
+        <v>40.0</v>
+      </c>
+      <c r="AM8" t="n" s="52">
+        <v>12.4</v>
+      </c>
+      <c r="AO8" t="n" s="53">
+        <v>68.6</v>
+      </c>
+      <c r="AQ8" t="n" s="17">
+        <v>6.6</v>
+      </c>
+      <c r="AR8" t="n" s="18">
+        <v>2.2</v>
+      </c>
+      <c r="AS8" t="n" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="AT8" t="n" s="20">
+        <v>4.29</v>
+      </c>
+      <c r="AU8" t="n" s="21">
+        <v>1.38</v>
+      </c>
+      <c r="AV8" t="n" s="22">
+        <v>0.41</v>
+      </c>
+      <c r="AW8" t="n" s="23">
+        <v>0.14</v>
+      </c>
+      <c r="AX8" t="n" s="24">
+        <v>0.03</v>
+      </c>
+      <c r="AY8" t="n" s="25">
+        <v>190.0</v>
+      </c>
+      <c r="AZ8" t="n" s="26">
+        <v>0.18</v>
+      </c>
+      <c r="BC8" t="n" s="32">
+        <v>19.0</v>
+      </c>
+      <c r="BD8" t="n" s="33">
+        <v>17.0</v>
+      </c>
+      <c r="BE8" t="n" s="34">
+        <v>4.0</v>
+      </c>
+      <c r="BF8" t="n" s="35">
+        <v>0.91</v>
+      </c>
+      <c r="BG8" t="n" s="36">
+        <v>71.0</v>
+      </c>
+      <c r="BH8" t="n" s="37">
+        <v>0.31</v>
+      </c>
+      <c r="BI8" t="n" s="38">
+        <v>48.7</v>
+      </c>
+      <c r="BJ8" t="n" s="39">
+        <v>76.6</v>
+      </c>
+      <c r="BK8" t="n" s="40">
+        <v>27.9</v>
+      </c>
+      <c r="BL8" t="n" s="41">
+        <v>1.75</v>
+      </c>
+      <c r="BM8" t="n" s="42">
+        <v>64.6</v>
+      </c>
+      <c r="BN8" t="n" s="27">
+        <v>18.7</v>
+      </c>
+      <c r="BO8" t="n" s="28">
+        <v>7.0</v>
+      </c>
+      <c r="BP8" t="n" s="29">
+        <v>27.0</v>
+      </c>
+      <c r="BQ8" t="n" s="30">
+        <v>163.0</v>
+      </c>
+      <c r="BR8" t="n" s="31">
+        <v>38.0</v>
+      </c>
+      <c r="BS8" t="n" s="43">
+        <v>61.0</v>
+      </c>
+      <c r="BT8" t="n" s="44">
+        <v>4.6</v>
+      </c>
+      <c r="BU8" t="n" s="13">
+        <v>4.5</v>
+      </c>
+      <c r="BV8" t="n" s="14">
+        <v>140.0</v>
+      </c>
+      <c r="BW8" t="n" s="15">
+        <v>103.0</v>
+      </c>
+      <c r="BX8" t="n" s="16">
+        <v>21.0</v>
+      </c>
+      <c r="CA8" t="n" s="8">
+        <v>24.3</v>
+      </c>
+      <c r="CB8" t="n" s="9">
+        <v>2.89</v>
+      </c>
+      <c r="CC8" t="n" s="10">
+        <v>16.0</v>
+      </c>
+      <c r="CD8" t="n" s="11">
+        <v>0.99</v>
+      </c>
+      <c r="CE8" t="n" s="12">
+        <v>207.72</v>
       </c>
     </row>
   </sheetData>
